--- a/Parameters/Par_HUN_Wastewater_Mtp.xlsx
+++ b/Parameters/Par_HUN_Wastewater_Mtp.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t xml:space="preserve">Label</t>
   </si>
@@ -31,7 +31,7 @@
     <t xml:space="preserve">TransitionLength</t>
   </si>
   <si>
-    <t xml:space="preserve">Szennyviz_Mtp</t>
+    <t xml:space="preserve">WW_Mtp</t>
   </si>
   <si>
     <t xml:space="preserve">Transient</t>
@@ -46,10 +46,13 @@
     <t xml:space="preserve">Delta</t>
   </si>
   <si>
-    <t xml:space="preserve">OmicronBA1</t>
+    <t xml:space="preserve">OmicronBA12</t>
   </si>
   <si>
     <t xml:space="preserve">OmicronBA5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OmicronBQ1</t>
   </si>
   <si>
     <t xml:space="preserve">Future</t>
@@ -286,12 +289,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ8"/>
+  <dimension ref="A1:AMJ9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="D2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="K25" activeCellId="0" sqref="K25"/>
+      <selection pane="bottomLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -492,20 +495,52 @@
       <c r="AMI7" s="0"/>
       <c r="AMJ7" s="0"/>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="4" t="s">
+    <row r="8" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="12" t="n">
+      <c r="B8" s="11" t="n">
+        <v>44883</v>
+      </c>
+      <c r="C8" s="8" t="n">
+        <v>20</v>
+      </c>
+      <c r="D8" s="9" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="E8" s="9"/>
+      <c r="ALT8" s="0"/>
+      <c r="ALU8" s="0"/>
+      <c r="ALV8" s="0"/>
+      <c r="ALW8" s="0"/>
+      <c r="ALX8" s="0"/>
+      <c r="ALY8" s="0"/>
+      <c r="ALZ8" s="0"/>
+      <c r="AMA8" s="0"/>
+      <c r="AMB8" s="0"/>
+      <c r="AMC8" s="0"/>
+      <c r="AMD8" s="0"/>
+      <c r="AME8" s="0"/>
+      <c r="AMF8" s="0"/>
+      <c r="AMG8" s="0"/>
+      <c r="AMH8" s="0"/>
+      <c r="AMI8" s="0"/>
+      <c r="AMJ8" s="0"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="12" t="n">
         <v>44926</v>
       </c>
-      <c r="C8" s="1" t="n">
+      <c r="C9" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="D8" s="1" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="E8" s="1"/>
+      <c r="D9" s="1" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="E9" s="1"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
